--- a/biology/Botanique/Lockhartia_(plante)/Lockhartia_(plante).xlsx
+++ b/biology/Botanique/Lockhartia_(plante)/Lockhartia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lockhartia est un genre de plantes de la famille des Orchidaceae. 
 Il a été nommé en l’honneur du botaniste David Lockhart.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (28 juin 2018)[2] et The Plant List            (28 juin 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (28 juin 2018) et The Plant List            (28 juin 2018) :
 Lockhartia acuta (Lindl.) Rchb.f.
 Lockhartia amoena Endres &amp; Rchb.f.
 Lockhartia bennettii Dodson
@@ -543,7 +557,7 @@
 Lockhartia triangulabia Ames &amp; C.Schweinf.
 Lockhartia tuberculata D.E.Benn. &amp; Christenson
 Lockhartia variabilis Ames &amp; C.Schweinf.
-Selon Catalogue of Life                                   (28 juin 2018)[4] et World Checklist of Selected Plant Families (WCSP)  (28 juin 2018)[5] :
+Selon Catalogue of Life                                   (28 juin 2018) et World Checklist of Selected Plant Families (WCSP)  (28 juin 2018) :
 Lockhartia acuta (Lindl.) Rchb.f. (1852)
 Lockhartia amoena Endrés &amp; Rchb.f. (1872)
 Lockhartia bennettii Dodson, Icon. Pl. Trop., ser. 2 (1989)
@@ -577,7 +591,7 @@
 Lockhartia tenuiflora M.A.Blanco (2014)
 Lockhartia tuberculata D.E.Benn. &amp; Christenson (1994)
 Lockhartia viruensis E.M.Pessoa &amp; M.Alves (2012)
-Selon Tropicos                                           (28 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Lockhartia acuta (Lindl.) Rchb. f.
 Lockhartia amoena Endrés &amp; Rchb. f.
 Lockhartia bennettii Dodson
